--- a/assets/EII/ASSESSMENT_CRITERIA/Indicator_Template.xlsx
+++ b/assets/EII/ASSESSMENT_CRITERIA/Indicator_Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ton09\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\new\assets\EII\ASSESSMENT_CRITERIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FFE20DB5-8CB8-4897-BC4B-CAB38388CEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC93678-6967-40BA-90ED-A5740FB0783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicator_Template (5)" sheetId="1" r:id="rId1"/>
+    <sheet name="Indicator_Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>รหัสตัวชี้วัด</t>
   </si>
@@ -31,17 +31,65 @@
     <t>ระดับของตัวชี้วัด</t>
   </si>
   <si>
+    <t>คะแนนการผ่านเกณฑ์ (%)</t>
+  </si>
+  <si>
+    <t>คำอธิบายเกณฑ์</t>
+  </si>
+  <si>
+    <t>ลำดับ-1-หัวข้อระดับตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ลำดับ-1-คะแนนระดับตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ลำดับ-2-หัวข้อระดับตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ลำดับ-2-คะแนนระดับตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ลำดับ-3-หัวข้อระดับตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ลำดับ-3-คะแนนระดับตัวชี้วัด</t>
+  </si>
+  <si>
+    <t>ลำดับ-1-หัวข้อองค์ประกอบฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-1-หลักฐานประกอบการประเมินฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-1-น้ำหนักการประเมินฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-2-หัวข้อองค์ประกอบฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-2-น้ำหนักการประเมินฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-2-หลักฐานประกอบการประเมินฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-3-หัวข้อองค์ประกอบฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-3-น้ำหนักการประเมินฯ</t>
+  </si>
+  <si>
+    <t>ลำดับ-3-หลักฐานประกอบการประเมินฯ</t>
+  </si>
+  <si>
     <t>องค์ประกอบของตัวชี้วัด</t>
-  </si>
-  <si>
-    <t>คะแนนการผ่านเกณฑ์ (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +242,15 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +428,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,9 +618,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,23 +980,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.875" customWidth="1"/>
+    <col min="14" max="14" width="27.625" customWidth="1"/>
+    <col min="15" max="15" width="37.125" customWidth="1"/>
+    <col min="16" max="16" width="32.875" customWidth="1"/>
+    <col min="17" max="17" width="28.125" customWidth="1"/>
+    <col min="18" max="18" width="36.25" customWidth="1"/>
+    <col min="19" max="19" width="30.75" customWidth="1"/>
+    <col min="20" max="20" width="32.375" customWidth="1"/>
+    <col min="21" max="21" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,17 +1019,74 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C1048576">
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="3"/>
@@ -951,16 +1095,8 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFFF0000"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
+  <conditionalFormatting sqref="E2:E1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="3"/>
@@ -970,7 +1106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
+  <conditionalFormatting sqref="E2:E1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="3"/>

--- a/assets/EII/ASSESSMENT_CRITERIA/Indicator_Template.xlsx
+++ b/assets/EII/ASSESSMENT_CRITERIA/Indicator_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\new\assets\EII\ASSESSMENT_CRITERIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ton09\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC93678-6967-40BA-90ED-A5740FB0783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1633D3-D420-4E5D-B47C-FCEB87DAA3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator_Template" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,44 +1078,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFFF0000"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="3"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="3"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>